--- a/Datasources/Season_Data/miscellaneous.xlsx
+++ b/Datasources/Season_Data/miscellaneous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68ACD84-3178-4C85-BB91-6D4AD202BE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135B7197-1F61-4C5F-B17C-15935E85C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>Player</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Player ID</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -393,11 +396,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,13 +706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -716,106 +722,109 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>33</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
@@ -823,153 +832,159 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>63</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>13</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>100</v>
       </c>
-      <c r="W2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>28.5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>45</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>167</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>69</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>27</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>71.900000000000006</v>
       </c>
-      <c r="W3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>42</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>148</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>16</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>42</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -977,212 +992,221 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>209</v>
-      </c>
-      <c r="T4">
-        <v>26</v>
       </c>
       <c r="U4">
         <v>26</v>
       </c>
       <c r="V4">
+        <v>26</v>
+      </c>
+      <c r="W4">
         <v>50</v>
       </c>
-      <c r="W4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24.6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>36</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>15</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>58</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>38</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>22</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>145</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>34</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>23</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>59.6</v>
       </c>
-      <c r="W5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>23.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>17</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>36</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>89</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>27</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>128</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>19</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>29.6</v>
       </c>
-      <c r="W6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>75</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>21.9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>36</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>31</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>74</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>14</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>25</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -1190,141 +1214,147 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>156</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>6</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>20</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>23.1</v>
       </c>
-      <c r="W7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>16</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>15</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>29</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>24</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>148</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>56</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>41</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>57.7</v>
       </c>
-      <c r="W8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>77</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>23.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>43</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>62</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>15</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1332,70 +1362,73 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>60</v>
       </c>
       <c r="U9">
+        <v>60</v>
+      </c>
+      <c r="V9">
         <v>117</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>33.9</v>
       </c>
-      <c r="W9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21.3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>21</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>49</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>19</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
@@ -1403,69 +1436,72 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>185</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>16</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>33.299999999999997</v>
       </c>
-      <c r="W10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14.6</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>31</v>
       </c>
-      <c r="K11">
-        <v>18</v>
-      </c>
       <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
       </c>
       <c r="O11">
         <v>7</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1474,141 +1510,147 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>43</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>40</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>36</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>52.6</v>
       </c>
-      <c r="W11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>16</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>73</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>24</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>38</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>38.700000000000003</v>
       </c>
-      <c r="W12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12.8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>22</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>9</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>17</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
@@ -1616,70 +1658,73 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>70</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>9</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>21</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>30</v>
       </c>
-      <c r="W13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>30</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>33</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>12</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
@@ -1687,141 +1732,147 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>53</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>15</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>21</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>41.7</v>
       </c>
-      <c r="W14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>83</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12.4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>21</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>29</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>17</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>15</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>70</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>6</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>16</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>27.3</v>
       </c>
-      <c r="W15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>11.9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>25</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>25</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>11</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
         <v>0</v>
       </c>
@@ -1829,114 +1880,120 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>81</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>31</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>23</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>57.4</v>
       </c>
-      <c r="W16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>85</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>12</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>7</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>15</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>17</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>39</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>27</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>59.1</v>
       </c>
-      <c r="W17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>86</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -1944,25 +2001,25 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>9</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>29</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>14</v>
       </c>
-      <c r="O18">
-        <v>18</v>
-      </c>
       <c r="P18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1971,70 +2028,73 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>57</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>6</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>45.5</v>
       </c>
-      <c r="W18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>87</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10.8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>27</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>14</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>42</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>7</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>26</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
         <v>0</v>
       </c>
@@ -2042,70 +2102,73 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>59</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>12</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>33.299999999999997</v>
       </c>
-      <c r="W19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>88</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>10.1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
         <v>17</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
       <c r="Q20">
         <v>0</v>
       </c>
@@ -2113,141 +2176,147 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>65</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>27</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>21</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>56.3</v>
       </c>
-      <c r="W20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7.3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>10</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
         <v>14</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>10</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>38</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>16</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>6</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>72.7</v>
       </c>
-      <c r="W21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>90</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6.8</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>14</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>6</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>10</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>12</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
         <v>0</v>
       </c>
@@ -2255,70 +2324,73 @@
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>50</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>13</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>14</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>48.1</v>
       </c>
-      <c r="W22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>91</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6.6</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>7</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>12</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
         <v>0</v>
       </c>
@@ -2326,69 +2398,72 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>33</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>9</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>75</v>
       </c>
-      <c r="W23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.6</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2397,43 +2472,46 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>14</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
       <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
         <v>4</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>20</v>
       </c>
-      <c r="W24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>93</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -2441,25 +2519,25 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>5</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2468,42 +2546,45 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>10</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>4</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>6</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>40</v>
       </c>
-      <c r="W25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>94</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2539,43 +2620,46 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>100</v>
       </c>
-      <c r="W26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>95</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.6</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -2583,26 +2667,26 @@
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
       <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
       <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <v>3</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
@@ -2610,43 +2694,46 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>12</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>28.6</v>
       </c>
-      <c r="W27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>96</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -2654,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
@@ -2669,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2681,43 +2768,46 @@
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>6</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>100</v>
       </c>
-      <c r="W28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>97</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.3</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -2725,26 +2815,26 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>2</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
@@ -2752,43 +2842,46 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>65</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.2</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
@@ -2829,16 +2922,19 @@
         <v>0</v>
       </c>
       <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2900,7 +2996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
